--- a/data/trans_orig/IP26D-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP26D-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{539C7B70-99D1-4F2B-B337-BD09E2494F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9698454-56FD-4E8F-82F7-E87F72C5C4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4C0EB273-DD70-4F7B-9EC8-8985A5891B80}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{71A4C94E-9221-4EF3-A5AF-3FFDFA3C497B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,6 +71,153 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Se quemaría siempre y no se pondría moreno nunca</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>Se quemaría fácilmente y se pondría muy poco moreno</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>Se quemaría moderadamente y se pondría moreno gradualmente</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>Se quemaría mínimamente y se pondría moreno siempre</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>Se quemaría raramente y se pondría muy moreno</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
     <t>Nunca se quemaría</t>
   </si>
   <si>
@@ -101,159 +248,291 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>Se quemaría fácilmente y se pondría muy poco moreno</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>Se quemaría moderadamente y se pondría moreno gradualmente</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>Se quemaría mínimamente y se pondría moreno siempre</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>Se quemaría raramente y se pondría muy moreno</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>Se quemaría siempre y no se pondría moreno nunca</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
@@ -278,283 +557,133 @@
     <t>3,01%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -584,138 +713,138 @@
     <t>1,92%</t>
   </si>
   <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
     <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2012 (Tasa respuesta: 96,38%)</t>
   </si>
   <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
     <t>3,23%</t>
   </si>
   <si>
@@ -743,133 +872,277 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
   </si>
   <si>
     <t>5,43%</t>
@@ -890,277 +1163,109 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
   </si>
   <si>
     <t>4,18%</t>
@@ -1184,114 +1289,126 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
     <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2015 (Tasa respuesta: 98,02%)</t>
   </si>
   <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
@@ -1307,121 +1424,259 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -1445,259 +1700,118 @@
     <t>2,98%</t>
   </si>
   <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -1724,123 +1838,120 @@
     <t>2,2%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
     <t>Menores según la opinión cuando se toma el sol sin ninguna protección en 2023 (Tasa respuesta: 99,01%)</t>
   </si>
   <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
     <t>1,66%</t>
   </si>
   <si>
@@ -1856,115 +1967,259 @@
     <t>6,1%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>1,73%</t>
@@ -1973,265 +2228,106 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>2,24%</t>
@@ -2247,102 +2343,6 @@
   </si>
   <si>
     <t>2,83%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
   </si>
 </sst>
 </file>
@@ -2734,7 +2734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2D5000-0C07-4097-800A-CD2A54A3B26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D332408-0B8D-47A4-8E01-87514B0C752B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2852,10 +2852,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D4" s="7">
-        <v>2639</v>
+        <v>91630</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2867,10 +2867,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>1303</v>
+        <v>96887</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2882,10 +2882,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>283</v>
       </c>
       <c r="N4" s="7">
-        <v>3942</v>
+        <v>188516</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -3107,10 +3107,10 @@
         <v>59</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>91630</v>
+        <v>2639</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3122,10 +3122,10 @@
         <v>62</v>
       </c>
       <c r="H9" s="7">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>96887</v>
+        <v>1303</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>63</v>
@@ -3137,10 +3137,10 @@
         <v>65</v>
       </c>
       <c r="M9" s="7">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>188516</v>
+        <v>3942</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>66</v>
@@ -3211,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7">
-        <v>3267</v>
+        <v>57120</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>71</v>
@@ -3226,34 +3226,34 @@
         <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>6749</v>
+        <v>50459</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>10016</v>
+        <v>107578</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,49 +3262,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
+        <v>107</v>
+      </c>
+      <c r="D12" s="7">
+        <v>70053</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="7">
         <v>95</v>
       </c>
-      <c r="D12" s="7">
-        <v>64005</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="7">
-        <v>103</v>
-      </c>
       <c r="I12" s="7">
-        <v>70211</v>
+        <v>62744</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>134216</v>
+        <v>132797</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,49 +3313,49 @@
         <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>111466</v>
+        <v>63239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7">
-        <v>99305</v>
+        <v>63076</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>313</v>
+        <v>187</v>
       </c>
       <c r="N13" s="7">
-        <v>210771</v>
+        <v>126314</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,49 +3364,49 @@
         <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>35133</v>
+        <v>13680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>24674</v>
+        <v>17570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>59807</v>
+        <v>31250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3415,49 @@
         <v>49</v>
       </c>
       <c r="C15" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>15785</v>
+        <v>5069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
       </c>
       <c r="I15" s="7">
-        <v>4947</v>
+        <v>5131</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N15" s="7">
-        <v>20732</v>
+        <v>10200</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,49 +3466,49 @@
         <v>59</v>
       </c>
       <c r="C16" s="7">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>48473</v>
+        <v>2102</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2003</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="7">
-        <v>80</v>
-      </c>
-      <c r="I16" s="7">
-        <v>53821</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4106</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="M16" s="7">
-        <v>153</v>
-      </c>
-      <c r="N16" s="7">
-        <v>102294</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3517,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>417</v>
+        <v>320</v>
       </c>
       <c r="D17" s="7">
-        <v>278129</v>
+        <v>211263</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -3532,10 +3532,10 @@
         <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>385</v>
+        <v>298</v>
       </c>
       <c r="I17" s="7">
-        <v>259707</v>
+        <v>200983</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -3547,10 +3547,10 @@
         <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>802</v>
+        <v>618</v>
       </c>
       <c r="N17" s="7">
-        <v>537836</v>
+        <v>412245</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -3564,55 +3564,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>2102</v>
+        <v>48473</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="I18" s="7">
-        <v>2003</v>
+        <v>53821</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="N18" s="7">
-        <v>4106</v>
+        <v>102294</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,49 +3621,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D19" s="7">
-        <v>70053</v>
+        <v>64005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I19" s="7">
-        <v>62744</v>
+        <v>70211</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N19" s="7">
-        <v>132797</v>
+        <v>134216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,49 +3672,49 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D20" s="7">
-        <v>63239</v>
+        <v>111466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="I20" s="7">
-        <v>63076</v>
+        <v>99305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
-        <v>187</v>
+        <v>313</v>
       </c>
       <c r="N20" s="7">
-        <v>126314</v>
+        <v>210771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,49 +3723,49 @@
         <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>13680</v>
+        <v>35133</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I21" s="7">
-        <v>17570</v>
+        <v>24674</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="N21" s="7">
-        <v>31250</v>
+        <v>59807</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,28 +3774,28 @@
         <v>49</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>5069</v>
+        <v>15785</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>5131</v>
+        <v>4947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>159</v>
@@ -3804,10 +3804,10 @@
         <v>160</v>
       </c>
       <c r="M22" s="7">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>10200</v>
+        <v>20732</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>161</v>
@@ -3825,28 +3825,28 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>57120</v>
+        <v>3267</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>50459</v>
+        <v>6749</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>167</v>
@@ -3855,10 +3855,10 @@
         <v>168</v>
       </c>
       <c r="M23" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="N23" s="7">
-        <v>107578</v>
+        <v>10016</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>169</v>
@@ -3876,10 +3876,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>320</v>
+        <v>417</v>
       </c>
       <c r="D24" s="7">
-        <v>211263</v>
+        <v>278129</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -3891,10 +3891,10 @@
         <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>298</v>
+        <v>385</v>
       </c>
       <c r="I24" s="7">
-        <v>200983</v>
+        <v>259707</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -3906,10 +3906,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>618</v>
+        <v>802</v>
       </c>
       <c r="N24" s="7">
-        <v>412245</v>
+        <v>537836</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -3929,10 +3929,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="D25" s="7">
-        <v>8008</v>
+        <v>197223</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>172</v>
@@ -3944,10 +3944,10 @@
         <v>174</v>
       </c>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="I25" s="7">
-        <v>10056</v>
+        <v>201166</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>175</v>
@@ -3956,22 +3956,22 @@
         <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="7">
+        <v>597</v>
+      </c>
+      <c r="N25" s="7">
+        <v>398388</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="M25" s="7">
-        <v>27</v>
-      </c>
-      <c r="N25" s="7">
-        <v>18064</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>203480</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>281</v>
@@ -4001,13 +4001,13 @@
         <v>186826</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>587</v>
@@ -4016,13 +4016,13 @@
         <v>390306</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4037,13 @@
         <v>212498</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H27" s="7">
         <v>290</v>
@@ -4052,13 +4052,13 @@
         <v>195497</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M27" s="7">
         <v>607</v>
@@ -4067,13 +4067,13 @@
         <v>407995</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4088,13 @@
         <v>56325</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H28" s="7">
         <v>76</v>
@@ -4103,13 +4103,13 @@
         <v>50403</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M28" s="7">
         <v>161</v>
@@ -4118,13 +4118,13 @@
         <v>106727</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4139,13 @@
         <v>23348</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -4154,13 +4154,13 @@
         <v>13678</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M29" s="7">
         <v>58</v>
@@ -4169,13 +4169,13 @@
         <v>37027</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,40 +4184,40 @@
         <v>59</v>
       </c>
       <c r="C30" s="7">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7">
-        <v>197223</v>
+        <v>8008</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10056</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H30" s="7">
-        <v>299</v>
-      </c>
-      <c r="I30" s="7">
-        <v>201166</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="M30" s="7">
-        <v>597</v>
+        <v>27</v>
       </c>
       <c r="N30" s="7">
-        <v>398388</v>
+        <v>18064</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>221</v>
@@ -4296,7 +4296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DF517E-7C87-43AB-B1F7-83555B10D34E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B679063-D4A7-45D8-959F-E7301D67815C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4414,10 +4414,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="D4" s="7">
-        <v>6968</v>
+        <v>83803</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>225</v>
@@ -4429,10 +4429,10 @@
         <v>227</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>7123</v>
+        <v>87897</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>228</v>
@@ -4444,10 +4444,10 @@
         <v>230</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>252</v>
       </c>
       <c r="N4" s="7">
-        <v>14090</v>
+        <v>171701</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>231</v>
@@ -4627,7 +4627,7 @@
         <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>262</v>
@@ -4669,10 +4669,10 @@
         <v>59</v>
       </c>
       <c r="C9" s="7">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>83803</v>
+        <v>6968</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>268</v>
@@ -4684,10 +4684,10 @@
         <v>270</v>
       </c>
       <c r="H9" s="7">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>87897</v>
+        <v>7123</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>271</v>
@@ -4699,10 +4699,10 @@
         <v>273</v>
       </c>
       <c r="M9" s="7">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>171701</v>
+        <v>14090</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>274</v>
@@ -4773,49 +4773,49 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>14570</v>
+        <v>66045</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7">
-        <v>9742</v>
+        <v>55777</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="N11" s="7">
-        <v>24312</v>
+        <v>121822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,49 +4824,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>52083</v>
+        <v>53780</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I12" s="7">
-        <v>62042</v>
+        <v>53475</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>114125</v>
+        <v>107256</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,49 +4875,49 @@
         <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="D13" s="7">
-        <v>81120</v>
+        <v>65397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="I13" s="7">
-        <v>72875</v>
+        <v>64398</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M13" s="7">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="N13" s="7">
-        <v>153996</v>
+        <v>129795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4926,49 +4926,49 @@
         <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>40303</v>
+        <v>21351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>103</v>
       </c>
       <c r="H14" s="7">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>41812</v>
+        <v>25171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M14" s="7">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>82115</v>
+        <v>46522</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,49 +4977,49 @@
         <v>49</v>
       </c>
       <c r="C15" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7">
-        <v>23848</v>
+        <v>20218</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H15" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7">
-        <v>22375</v>
+        <v>20812</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="M15" s="7">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="N15" s="7">
-        <v>46223</v>
+        <v>41029</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,49 +5028,49 @@
         <v>59</v>
       </c>
       <c r="C16" s="7">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>56278</v>
+        <v>8541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>45052</v>
+        <v>4856</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="M16" s="7">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="N16" s="7">
-        <v>101330</v>
+        <v>13398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>396</v>
+        <v>326</v>
       </c>
       <c r="D17" s="7">
-        <v>268202</v>
+        <v>235332</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -5094,10 +5094,10 @@
         <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>361</v>
+        <v>314</v>
       </c>
       <c r="I17" s="7">
-        <v>253898</v>
+        <v>224489</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -5109,10 +5109,10 @@
         <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>757</v>
+        <v>640</v>
       </c>
       <c r="N17" s="7">
-        <v>522100</v>
+        <v>459822</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -5126,55 +5126,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7">
-        <v>8541</v>
+        <v>56278</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="I18" s="7">
-        <v>4856</v>
+        <v>45052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M18" s="7">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="N18" s="7">
-        <v>13398</v>
+        <v>101330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,49 +5183,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" s="7">
-        <v>53780</v>
+        <v>52083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="H19" s="7">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I19" s="7">
-        <v>53475</v>
+        <v>62042</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M19" s="7">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="N19" s="7">
-        <v>107256</v>
+        <v>114125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>338</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,49 +5234,49 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D20" s="7">
-        <v>65397</v>
+        <v>81120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I20" s="7">
-        <v>64398</v>
+        <v>72875</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="N20" s="7">
-        <v>129795</v>
+        <v>153996</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,49 +5285,49 @@
         <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D21" s="7">
-        <v>21351</v>
+        <v>40303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="H21" s="7">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I21" s="7">
-        <v>25171</v>
+        <v>41812</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="M21" s="7">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="N21" s="7">
-        <v>46522</v>
+        <v>82115</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5336,49 @@
         <v>49</v>
       </c>
       <c r="C22" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>20218</v>
+        <v>23848</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I22" s="7">
-        <v>20812</v>
+        <v>22375</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M22" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="N22" s="7">
-        <v>41029</v>
+        <v>46223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,46 +5387,46 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>66045</v>
+        <v>14570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>366</v>
+        <v>207</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H23" s="7">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="I23" s="7">
-        <v>55777</v>
+        <v>9742</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>368</v>
+        <v>46</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="N23" s="7">
-        <v>121822</v>
+        <v>24312</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>373</v>
@@ -5438,10 +5438,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="D24" s="7">
-        <v>235332</v>
+        <v>268202</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -5453,10 +5453,10 @@
         <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="I24" s="7">
-        <v>224489</v>
+        <v>253898</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -5468,10 +5468,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>640</v>
+        <v>757</v>
       </c>
       <c r="N24" s="7">
-        <v>459822</v>
+        <v>522100</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -5491,10 +5491,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="D25" s="7">
-        <v>30079</v>
+        <v>206126</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>374</v>
@@ -5506,25 +5506,25 @@
         <v>376</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="I25" s="7">
-        <v>21721</v>
+        <v>188727</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>378</v>
       </c>
       <c r="M25" s="7">
-        <v>70</v>
+        <v>573</v>
       </c>
       <c r="N25" s="7">
-        <v>51800</v>
+        <v>394853</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>379</v>
@@ -5533,7 +5533,7 @@
         <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5548,13 @@
         <v>165115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>252</v>
@@ -5563,13 +5563,13 @@
         <v>173748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>235</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="M26" s="7">
         <v>489</v>
@@ -5578,13 +5578,13 @@
         <v>338862</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5599,13 @@
         <v>180332</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="H27" s="7">
         <v>244</v>
@@ -5614,13 +5614,13 @@
         <v>169719</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M27" s="7">
         <v>504</v>
@@ -5629,13 +5629,13 @@
         <v>350051</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5650,13 @@
         <v>85086</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H28" s="7">
         <v>117</v>
@@ -5668,10 +5668,10 @@
         <v>244</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
         <v>238</v>
@@ -5680,13 +5680,13 @@
         <v>167127</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5701,13 @@
         <v>52449</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>75</v>
@@ -5716,13 +5716,13 @@
         <v>55060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>149</v>
@@ -5731,13 +5731,13 @@
         <v>107508</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,49 +5746,49 @@
         <v>59</v>
       </c>
       <c r="C30" s="7">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7">
-        <v>206126</v>
+        <v>30079</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="I30" s="7">
-        <v>188727</v>
+        <v>21721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
-        <v>573</v>
+        <v>70</v>
       </c>
       <c r="N30" s="7">
-        <v>394853</v>
+        <v>51800</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BFD2D5-D560-4D68-BD39-6E976360CDCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73B3A6B-ED18-48C3-B35F-2305BA2EBFD9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5976,49 +5976,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D4" s="7">
-        <v>532</v>
+        <v>79042</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>417</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>418</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="I4" s="7">
-        <v>2557</v>
+        <v>84950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>259</v>
       </c>
       <c r="N4" s="7">
-        <v>3090</v>
+        <v>163993</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6033,13 @@
         <v>53768</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>89</v>
@@ -6048,13 +6048,13 @@
         <v>55517</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>171</v>
@@ -6063,13 +6063,13 @@
         <v>109285</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6084,13 @@
         <v>46977</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="H6" s="7">
         <v>51</v>
@@ -6099,13 +6099,13 @@
         <v>30316</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>123</v>
@@ -6114,13 +6114,13 @@
         <v>77293</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6135,10 +6135,10 @@
         <v>14122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>257</v>
@@ -6150,13 +6150,13 @@
         <v>9463</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -6165,13 +6165,13 @@
         <v>23585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6186,13 +6186,13 @@
         <v>7040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -6201,13 +6201,13 @@
         <v>7833</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -6216,13 +6216,13 @@
         <v>14873</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,40 +6231,40 @@
         <v>59</v>
       </c>
       <c r="C9" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>79042</v>
+        <v>532</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>453</v>
+        <v>64</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>454</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>84950</v>
+        <v>2557</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>455</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>457</v>
+        <v>414</v>
       </c>
       <c r="M9" s="7">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>163993</v>
+        <v>3090</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>458</v>
@@ -6335,10 +6335,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>4951</v>
+        <v>73616</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>461</v>
@@ -6350,10 +6350,10 @@
         <v>463</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7">
-        <v>4172</v>
+        <v>48432</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>464</v>
@@ -6365,19 +6365,19 @@
         <v>466</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="N11" s="7">
-        <v>9124</v>
+        <v>122048</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6386,49 +6386,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D12" s="7">
-        <v>64847</v>
+        <v>68210</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H12" s="7">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="I12" s="7">
-        <v>81244</v>
+        <v>70844</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M12" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N12" s="7">
-        <v>146091</v>
+        <v>139055</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>473</v>
+        <v>291</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>475</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,10 +6437,10 @@
         <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="D13" s="7">
-        <v>97865</v>
+        <v>66996</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>476</v>
@@ -6449,37 +6449,37 @@
         <v>477</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="7">
+        <v>109</v>
+      </c>
+      <c r="I13" s="7">
+        <v>71897</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="H13" s="7">
-        <v>112</v>
-      </c>
-      <c r="I13" s="7">
-        <v>81038</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>208</v>
+      </c>
+      <c r="N13" s="7">
+        <v>138893</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="M13" s="7">
-        <v>245</v>
-      </c>
-      <c r="N13" s="7">
-        <v>178903</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>483</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>484</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,49 +6488,49 @@
         <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D14" s="7">
-        <v>45129</v>
+        <v>25011</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H14" s="7">
+        <v>28</v>
+      </c>
+      <c r="I14" s="7">
+        <v>18012</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="H14" s="7">
-        <v>35</v>
-      </c>
-      <c r="I14" s="7">
-        <v>25525</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>65</v>
+      </c>
+      <c r="N14" s="7">
+        <v>43024</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="M14" s="7">
-        <v>96</v>
-      </c>
-      <c r="N14" s="7">
-        <v>70654</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,49 +6539,49 @@
         <v>49</v>
       </c>
       <c r="C15" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>18064</v>
+        <v>11399</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>20617</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="M15" s="7">
+        <v>45</v>
+      </c>
+      <c r="N15" s="7">
+        <v>32016</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H15" s="7">
-        <v>21</v>
-      </c>
-      <c r="I15" s="7">
-        <v>14907</v>
-      </c>
-      <c r="J15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="M15" s="7">
-        <v>44</v>
-      </c>
-      <c r="N15" s="7">
-        <v>32971</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,49 +6590,49 @@
         <v>59</v>
       </c>
       <c r="C16" s="7">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>48926</v>
+        <v>4820</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4324</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>12</v>
+      </c>
+      <c r="N16" s="7">
+        <v>9144</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="H16" s="7">
-        <v>81</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57136</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="M16" s="7">
-        <v>149</v>
-      </c>
-      <c r="N16" s="7">
-        <v>106062</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,10 +6641,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D17" s="7">
-        <v>279782</v>
+        <v>250052</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -6656,10 +6656,10 @@
         <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="I17" s="7">
-        <v>264023</v>
+        <v>234127</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -6671,10 +6671,10 @@
         <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="N17" s="7">
-        <v>543805</v>
+        <v>484179</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -6688,55 +6688,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D18" s="7">
-        <v>4820</v>
+        <v>48926</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>174</v>
+        <v>504</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H18" s="7">
+        <v>81</v>
+      </c>
+      <c r="I18" s="7">
+        <v>57136</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" s="7">
+        <v>149</v>
+      </c>
+      <c r="N18" s="7">
+        <v>106062</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4324</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="M18" s="7">
-        <v>12</v>
-      </c>
-      <c r="N18" s="7">
-        <v>9144</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,49 +6745,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7">
-        <v>68210</v>
+        <v>64847</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H19" s="7">
+        <v>115</v>
+      </c>
+      <c r="I19" s="7">
+        <v>81244</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>203</v>
+      </c>
+      <c r="N19" s="7">
+        <v>146091</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="H19" s="7">
-        <v>108</v>
-      </c>
-      <c r="I19" s="7">
-        <v>70844</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="M19" s="7">
-        <v>207</v>
-      </c>
-      <c r="N19" s="7">
-        <v>139055</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,25 +6796,25 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <v>66996</v>
+        <v>97865</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="H20" s="7">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>71897</v>
+        <v>81038</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>524</v>
@@ -6826,19 +6826,19 @@
         <v>526</v>
       </c>
       <c r="M20" s="7">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="N20" s="7">
-        <v>138893</v>
+        <v>178903</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>527</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>297</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,49 +6847,49 @@
         <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D21" s="7">
-        <v>25011</v>
+        <v>45129</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H21" s="7">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I21" s="7">
-        <v>18012</v>
+        <v>25525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M21" s="7">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="N21" s="7">
-        <v>43024</v>
+        <v>70654</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>306</v>
+        <v>536</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,49 +6898,49 @@
         <v>49</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D22" s="7">
-        <v>11399</v>
+        <v>18064</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>538</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>20617</v>
+        <v>14907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>309</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>539</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M22" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N22" s="7">
-        <v>32016</v>
+        <v>32971</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6949,46 +6949,46 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>73616</v>
+        <v>4951</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="H23" s="7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>48432</v>
+        <v>4172</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M23" s="7">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="N23" s="7">
-        <v>122048</v>
+        <v>9124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>550</v>
+        <v>449</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>551</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>552</v>
@@ -7000,10 +7000,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D24" s="7">
-        <v>250052</v>
+        <v>279782</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -7015,10 +7015,10 @@
         <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="I24" s="7">
-        <v>234127</v>
+        <v>264023</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -7030,10 +7030,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="N24" s="7">
-        <v>484179</v>
+        <v>543805</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -7053,10 +7053,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>13</v>
+        <v>295</v>
       </c>
       <c r="D25" s="7">
-        <v>10303</v>
+        <v>201584</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>553</v>
@@ -7068,10 +7068,10 @@
         <v>555</v>
       </c>
       <c r="H25" s="7">
-        <v>15</v>
+        <v>297</v>
       </c>
       <c r="I25" s="7">
-        <v>11054</v>
+        <v>190518</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>556</v>
@@ -7083,19 +7083,19 @@
         <v>558</v>
       </c>
       <c r="M25" s="7">
-        <v>28</v>
+        <v>592</v>
       </c>
       <c r="N25" s="7">
-        <v>21357</v>
+        <v>392103</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7110,13 @@
         <v>186826</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H26" s="7">
         <v>312</v>
@@ -7125,13 +7125,13 @@
         <v>207605</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>581</v>
@@ -7140,13 +7140,13 @@
         <v>394431</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7161,13 @@
         <v>211838</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>572</v>
       </c>
       <c r="H27" s="7">
         <v>272</v>
@@ -7176,13 +7176,13 @@
         <v>183251</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
@@ -7191,13 +7191,13 @@
         <v>395090</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7212,13 @@
         <v>84262</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H28" s="7">
         <v>78</v>
@@ -7227,13 +7227,13 @@
         <v>53001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>531</v>
+        <v>485</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M28" s="7">
         <v>196</v>
@@ -7242,13 +7242,13 @@
         <v>137263</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>488</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7263,13 @@
         <v>36503</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>64</v>
@@ -7278,13 +7278,13 @@
         <v>43356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="M29" s="7">
         <v>111</v>
@@ -7293,13 +7293,13 @@
         <v>79859</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7308,46 +7308,46 @@
         <v>59</v>
       </c>
       <c r="C30" s="7">
-        <v>295</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>201584</v>
+        <v>10303</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7">
+        <v>11054</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="H30" s="7">
-        <v>297</v>
-      </c>
-      <c r="I30" s="7">
-        <v>190518</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>28</v>
+      </c>
+      <c r="N30" s="7">
+        <v>21357</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="M30" s="7">
-        <v>592</v>
-      </c>
-      <c r="N30" s="7">
-        <v>392103</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>598</v>
@@ -7420,7 +7420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E4DDB1-EA24-4CEF-8C3D-0A5588774919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E7584-7831-4B79-BF94-BC46B2F623BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7538,46 +7538,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7">
-        <v>1915</v>
+        <v>36710</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>601</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>2793</v>
+        <v>25614</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>126</v>
+      </c>
+      <c r="N4" s="7">
+        <v>62325</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="M4" s="7">
-        <v>9</v>
-      </c>
-      <c r="N4" s="7">
-        <v>4708</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>606</v>
@@ -7595,7 +7595,7 @@
         <v>31601</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>607</v>
@@ -7664,7 +7664,7 @@
         <v>618</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>619</v>
@@ -7697,7 +7697,7 @@
         <v>7378</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>623</v>
@@ -7754,7 +7754,7 @@
         <v>631</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -7778,13 +7778,13 @@
         <v>8411</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>606</v>
+        <v>635</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,49 +7793,49 @@
         <v>59</v>
       </c>
       <c r="C9" s="7">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>36710</v>
+        <v>1915</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>348</v>
+        <v>637</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>2793</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="M9" s="7">
+        <v>9</v>
+      </c>
+      <c r="N9" s="7">
+        <v>4708</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="H9" s="7">
-        <v>51</v>
-      </c>
-      <c r="I9" s="7">
-        <v>25614</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="M9" s="7">
-        <v>126</v>
-      </c>
-      <c r="N9" s="7">
-        <v>62325</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,10 +7897,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7">
-        <v>6913</v>
+        <v>38226</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>642</v>
@@ -7912,34 +7912,34 @@
         <v>644</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7">
-        <v>4895</v>
+        <v>54536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>375</v>
+        <v>647</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7">
-        <v>11808</v>
+        <v>92762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>649</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,49 +7948,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>81049</v>
+        <v>50218</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H12" s="7">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>82044</v>
+        <v>42677</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="M12" s="7">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="N12" s="7">
-        <v>163093</v>
+        <v>92894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,49 +7999,49 @@
         <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>178253</v>
+        <v>79672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7">
-        <v>152983</v>
+        <v>71637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="M13" s="7">
-        <v>401</v>
+        <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>331236</v>
+        <v>151309</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,49 +8050,49 @@
         <v>39</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>41658</v>
+        <v>15281</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>666</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>32695</v>
+        <v>18515</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>74353</v>
+        <v>33796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>670</v>
+        <v>582</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,49 +8101,49 @@
         <v>49</v>
       </c>
       <c r="C15" s="7">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>12015</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H15" s="7">
+        <v>12</v>
+      </c>
+      <c r="I15" s="7">
+        <v>6997</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="7">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
-        <v>27322</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="H15" s="7">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7">
-        <v>13032</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="M15" s="7">
-        <v>46</v>
-      </c>
       <c r="N15" s="7">
-        <v>40354</v>
+        <v>19012</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>261</v>
+        <v>678</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,46 +8152,46 @@
         <v>59</v>
       </c>
       <c r="C16" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>65185</v>
+        <v>7283</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>250</v>
+        <v>681</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H16" s="7">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>62399</v>
+        <v>3905</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="M16" s="7">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>127584</v>
+        <v>11187</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>685</v>
@@ -8203,10 +8203,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>476</v>
+        <v>269</v>
       </c>
       <c r="D17" s="7">
-        <v>400380</v>
+        <v>202694</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>69</v>
@@ -8218,10 +8218,10 @@
         <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>459</v>
+        <v>281</v>
       </c>
       <c r="I17" s="7">
-        <v>348048</v>
+        <v>198267</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>69</v>
@@ -8233,10 +8233,10 @@
         <v>69</v>
       </c>
       <c r="M17" s="7">
-        <v>935</v>
+        <v>550</v>
       </c>
       <c r="N17" s="7">
-        <v>748428</v>
+        <v>400961</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -8250,55 +8250,55 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="D18" s="7">
-        <v>7283</v>
+        <v>65185</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>644</v>
+        <v>688</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>686</v>
+        <v>250</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I18" s="7">
-        <v>3905</v>
+        <v>62399</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M18" s="7">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="N18" s="7">
-        <v>11187</v>
+        <v>127584</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,49 +8307,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D19" s="7">
-        <v>50218</v>
+        <v>81049</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H19" s="7">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="I19" s="7">
-        <v>42677</v>
+        <v>82044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M19" s="7">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="N19" s="7">
-        <v>92894</v>
+        <v>163093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,49 +8358,49 @@
         <v>29</v>
       </c>
       <c r="C20" s="7">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="D20" s="7">
-        <v>79672</v>
+        <v>178253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H20" s="7">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="I20" s="7">
-        <v>71637</v>
+        <v>152983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="M20" s="7">
-        <v>196</v>
+        <v>401</v>
       </c>
       <c r="N20" s="7">
-        <v>151309</v>
+        <v>331236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,49 +8409,49 @@
         <v>39</v>
       </c>
       <c r="C21" s="7">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>15281</v>
+        <v>41658</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>247</v>
+        <v>715</v>
       </c>
       <c r="H21" s="7">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I21" s="7">
-        <v>18515</v>
+        <v>32695</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="M21" s="7">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>33796</v>
+        <v>74353</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>583</v>
+        <v>719</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>627</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,49 +8460,49 @@
         <v>49</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>12015</v>
+        <v>27322</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>716</v>
+        <v>205</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="H22" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>6997</v>
+        <v>13032</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>723</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>451</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>203</v>
+        <v>724</v>
       </c>
       <c r="M22" s="7">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N22" s="7">
-        <v>19012</v>
+        <v>40354</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>720</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,46 +8511,46 @@
         <v>59</v>
       </c>
       <c r="C23" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D23" s="7">
-        <v>38226</v>
+        <v>6913</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="H23" s="7">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="I23" s="7">
-        <v>54536</v>
+        <v>4895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>725</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>727</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="N23" s="7">
-        <v>92762</v>
+        <v>11808</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>728</v>
+        <v>549</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>729</v>
+        <v>222</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>730</v>
@@ -8562,10 +8562,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="D24" s="7">
-        <v>202694</v>
+        <v>400380</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>69</v>
@@ -8577,10 +8577,10 @@
         <v>69</v>
       </c>
       <c r="H24" s="7">
-        <v>281</v>
+        <v>459</v>
       </c>
       <c r="I24" s="7">
-        <v>198267</v>
+        <v>348048</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>69</v>
@@ -8592,10 +8592,10 @@
         <v>69</v>
       </c>
       <c r="M24" s="7">
-        <v>550</v>
+        <v>935</v>
       </c>
       <c r="N24" s="7">
-        <v>400961</v>
+        <v>748428</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>69</v>
@@ -8615,49 +8615,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="D25" s="7">
-        <v>16110</v>
+        <v>140121</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>731</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>553</v>
+        <v>693</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>732</v>
       </c>
       <c r="H25" s="7">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I25" s="7">
-        <v>11592</v>
+        <v>142550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>686</v>
+        <v>334</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>633</v>
+        <v>733</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="N25" s="7">
-        <v>27703</v>
+        <v>282671</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>734</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>226</v>
+        <v>735</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,10 +8672,10 @@
         <v>162867</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>621</v>
@@ -8687,13 +8687,13 @@
         <v>154497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
         <v>469</v>
@@ -8702,13 +8702,13 @@
         <v>317363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8723,13 @@
         <v>289851</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H27" s="7">
         <v>342</v>
@@ -8738,13 +8738,13 @@
         <v>258049</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M27" s="7">
         <v>712</v>
@@ -8753,13 +8753,13 @@
         <v>547899</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8774,13 @@
         <v>64317</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H28" s="7">
         <v>87</v>
@@ -8789,13 +8789,13 @@
         <v>58426</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M28" s="7">
         <v>174</v>
@@ -8804,13 +8804,13 @@
         <v>122743</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8825,13 @@
         <v>44930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H29" s="7">
         <v>36</v>
@@ -8840,13 +8840,13 @@
         <v>22847</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -8855,13 +8855,13 @@
         <v>67777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>261</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8870,46 +8870,46 @@
         <v>59</v>
       </c>
       <c r="C30" s="7">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="D30" s="7">
-        <v>140121</v>
+        <v>16110</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>683</v>
+        <v>591</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H30" s="7">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>142550</v>
+        <v>11592</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>318</v>
+        <v>681</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>764</v>
+        <v>633</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>765</v>
       </c>
       <c r="M30" s="7">
-        <v>420</v>
+        <v>37</v>
       </c>
       <c r="N30" s="7">
-        <v>282671</v>
+        <v>27703</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>547</v>
+        <v>766</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>766</v>
+        <v>269</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>767</v>
